--- a/GPU_memory_usage.xlsx
+++ b/GPU_memory_usage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="23955" windowHeight="12075"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -203,9 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,15 +515,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -773,12 +773,12 @@
         <v>21</v>
       </c>
       <c r="B25" s="4">
-        <f>B14*B11*C11</f>
-        <v>256</v>
+        <f>((B5*B5*4)/(1024*1024))*B11*C11</f>
+        <v>64</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -786,12 +786,12 @@
         <v>22</v>
       </c>
       <c r="B26" s="4">
-        <f>B16*B11</f>
-        <v>256</v>
+        <f>((B5*B5*4)/(1024*1024))*B11</f>
+        <v>64</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,12 +799,12 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
-        <f>B17*B11*C11</f>
-        <v>768</v>
+        <f>((B5*B5*3*B6)/(1024*1024))*B11*C11*B9</f>
+        <v>192</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,12 +812,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <f>B18*B11*C11</f>
-        <v>768</v>
+        <f>((B5*B5*3*B6)/(1024*1024))*B11*C11*B10</f>
+        <v>192</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,11 +826,11 @@
       </c>
       <c r="B29" s="6">
         <f>SUM(B14:B28)</f>
-        <v>3424</v>
+        <v>1888</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="0"/>
-        <v>3.34375</v>
+        <v>1.84375</v>
       </c>
     </row>
   </sheetData>
